--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4EDEDB-6EF8-498C-8278-BE45033E6531}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E020DC-B2F0-4FB4-8B16-249E87D2EAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21756" yWindow="2760" windowWidth="2388" windowHeight="564" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
@@ -498,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
-  <dimension ref="A1:AB25"/>
+  <dimension ref="A1:AB17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,46 +1221,6 @@
       </c>
       <c r="F17">
         <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D25">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E020DC-B2F0-4FB4-8B16-249E87D2EAAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB256C-F643-4786-82F9-39AA96F65D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21756" yWindow="2760" windowWidth="2388" windowHeight="564" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -52,10 +52,18 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -186,7 +194,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -202,7 +210,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -498,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
-  <dimension ref="A1:AB17"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,22 +632,13 @@
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6">
-        <v>11.5</v>
-      </c>
-      <c r="F6">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J6" t="s">
         <v>3</v>
@@ -695,13 +694,13 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7">
         <v>11.5</v>
@@ -766,13 +765,13 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>11.5</v>
@@ -837,13 +836,13 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9">
         <v>11.5</v>
@@ -883,22 +882,22 @@
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10">
-        <v>18</v>
+        <v>11.5</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N10">
         <f>N8</f>
@@ -929,22 +928,13 @@
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11">
-        <v>18</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="R11">
         <f>R8</f>
@@ -978,13 +968,13 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E12">
         <v>18</v>
@@ -1024,13 +1014,13 @@
         <v>3</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D13">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13">
         <v>18</v>
@@ -1067,22 +1057,22 @@
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F14">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="K14">
         <f>K8</f>
@@ -1113,22 +1103,22 @@
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15">
         <v>4</v>
       </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
       <c r="C15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D15">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="F15">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="L15">
         <f>L8</f>
@@ -1159,21 +1149,12 @@
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>15</v>
-      </c>
-      <c r="D16">
-        <v>15</v>
-      </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
-      <c r="F16">
         <v>12</v>
       </c>
       <c r="M16">
@@ -1208,19 +1189,90 @@
         <v>4</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E17">
         <v>8</v>
       </c>
       <c r="F17">
         <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>8</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>15</v>
+      </c>
+      <c r="E19">
+        <v>8</v>
+      </c>
+      <c r="F19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>16</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1232,8 +1284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69236D81-7D52-4FEB-8FB9-F62367489C57}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:G39"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAB256C-F643-4786-82F9-39AA96F65D45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64E9EA-449A-4F10-BB4A-FDFFC326A6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,14 @@
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Blad1!$J$8:$Y$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Blad1!$P$8:$AE$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Blad1!$Z$13:$Z$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Blad1!$Z$9:$Z$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Blad1!$AF$13:$AF$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Blad1!$AF$9:$AF$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -34,13 +34,13 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Blad1!$L$4</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Blad1!$R$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Blad1!$AB$13:$AB$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Blad1!$AB$9:$AB$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Blad1!$AH$13:$AH$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Blad1!$AH$9:$AH$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Flight</t>
   </si>
@@ -154,13 +154,31 @@
   </si>
   <si>
     <t>Time_intervals</t>
+  </si>
+  <si>
+    <t>a_it</t>
+  </si>
+  <si>
+    <t>Timeslot</t>
+  </si>
+  <si>
+    <t>Flight1</t>
+  </si>
+  <si>
+    <t>Flight2</t>
+  </si>
+  <si>
+    <t>Flight3</t>
+  </si>
+  <si>
+    <t>Flight4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,13 +186,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -189,9 +219,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +551,7 @@
     <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,16 +562,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -554,13 +582,19 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>2</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -571,16 +605,18 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>9</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -591,26 +627,28 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4">
-        <v>10</v>
-      </c>
-      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="P4" t="s">
         <v>19</v>
       </c>
-      <c r="K4" t="s">
+      <c r="Q4" t="s">
         <v>20</v>
       </c>
-      <c r="L4">
-        <f>SUMPRODUCT(J7:Y7,J8:Y8)</f>
+      <c r="R4">
+        <f>SUMPRODUCT(P7:AE7,P8:AE8)</f>
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -621,16 +659,18 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -640,56 +680,66 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="J6" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="P6" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>4</v>
+      </c>
+      <c r="R6" t="s">
         <v>5</v>
       </c>
-      <c r="M6" t="s">
+      <c r="S6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" t="s">
+      <c r="T6" t="s">
         <v>7</v>
       </c>
-      <c r="O6" t="s">
+      <c r="U6" t="s">
         <v>8</v>
       </c>
-      <c r="P6" t="s">
+      <c r="V6" t="s">
         <v>9</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="W6" t="s">
         <v>10</v>
       </c>
-      <c r="R6" t="s">
+      <c r="X6" t="s">
         <v>11</v>
       </c>
-      <c r="S6" t="s">
+      <c r="Y6" t="s">
         <v>12</v>
       </c>
-      <c r="T6" t="s">
+      <c r="Z6" t="s">
         <v>13</v>
       </c>
-      <c r="U6" t="s">
+      <c r="AA6" t="s">
         <v>14</v>
       </c>
-      <c r="V6" t="s">
+      <c r="AB6" t="s">
         <v>15</v>
       </c>
-      <c r="W6" t="s">
+      <c r="AC6" t="s">
         <v>16</v>
       </c>
-      <c r="X6" t="s">
+      <c r="AD6" t="s">
         <v>17</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="AE6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
@@ -700,67 +750,64 @@
         <v>5</v>
       </c>
       <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>2</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7">
         <v>5</v>
       </c>
-      <c r="E7">
-        <v>11.5</v>
-      </c>
-      <c r="F7">
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>7</v>
+      </c>
+      <c r="W7">
+        <v>8</v>
+      </c>
+      <c r="X7">
+        <v>9</v>
+      </c>
+      <c r="Y7">
+        <v>10</v>
+      </c>
+      <c r="Z7">
+        <v>11</v>
+      </c>
+      <c r="AA7">
+        <v>12</v>
+      </c>
+      <c r="AB7">
         <v>13</v>
       </c>
-      <c r="I7" t="s">
-        <v>2</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>3</v>
-      </c>
-      <c r="M7">
-        <v>4</v>
-      </c>
-      <c r="N7">
-        <v>5</v>
-      </c>
-      <c r="O7">
-        <v>6</v>
-      </c>
-      <c r="P7">
-        <v>7</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-      <c r="R7">
-        <v>9</v>
-      </c>
-      <c r="S7">
-        <v>10</v>
-      </c>
-      <c r="T7">
-        <v>11</v>
-      </c>
-      <c r="U7">
-        <v>12</v>
-      </c>
-      <c r="V7">
-        <v>13</v>
-      </c>
-      <c r="W7">
+      <c r="AC7">
         <v>14</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>15</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -771,35 +818,14 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>11.5</v>
-      </c>
-      <c r="F8">
-        <v>13</v>
-      </c>
-      <c r="I8" t="s">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
         <v>22</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
       <c r="P8">
         <v>0</v>
       </c>
@@ -816,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -825,13 +851,31 @@
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -842,45 +886,42 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>11.5</v>
-      </c>
-      <c r="F9">
-        <v>13</v>
-      </c>
-      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
         <v>21</v>
       </c>
-      <c r="J9">
-        <f>J8</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>K8</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>L8</f>
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f>SUM(J9:Y9)</f>
-        <v>1</v>
-      </c>
-      <c r="AA9" t="s">
+      <c r="P9">
+        <f>P8</f>
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f>Q8</f>
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <f>R8</f>
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <f>S8</f>
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <f>SUM(P9:AE9)</f>
+        <v>1</v>
+      </c>
+      <c r="AG9" t="s">
         <v>20</v>
       </c>
-      <c r="AB9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -891,42 +932,39 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>11.5</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="N10">
-        <f>N8</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>O8</f>
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <f>P8</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f>Q8</f>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f t="shared" ref="Z10:Z12" si="0">SUM(J10:Y10)</f>
-        <v>1</v>
-      </c>
-      <c r="AA10" t="s">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <f>T8</f>
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <f>U8</f>
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <f>V8</f>
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <f>W8</f>
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" ref="AF10:AF12" si="0">SUM(P10:AE10)</f>
+        <v>1</v>
+      </c>
+      <c r="AG10" t="s">
         <v>20</v>
       </c>
-      <c r="AB10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -936,34 +974,40 @@
       <c r="C11">
         <v>8</v>
       </c>
-      <c r="R11">
-        <f>R8</f>
-        <v>1</v>
-      </c>
-      <c r="S11">
-        <f>S8</f>
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <f>T8</f>
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <f>U8</f>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="X11">
+        <f>X8</f>
+        <v>1</v>
+      </c>
+      <c r="Y11">
+        <f>Y8</f>
         <v>0</v>
       </c>
       <c r="Z11">
+        <f>Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f>AA8</f>
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AG11" t="s">
         <v>20</v>
       </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
@@ -974,42 +1018,39 @@
         <v>9</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>22</v>
-      </c>
-      <c r="V12">
-        <f>V8</f>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f>W8</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>X8</f>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f>Y8</f>
-        <v>1</v>
-      </c>
-      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AB12">
+        <f>AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f>AC8</f>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f>AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f>AE8</f>
+        <v>1</v>
+      </c>
+      <c r="AF12">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AG12" t="s">
         <v>20</v>
       </c>
-      <c r="AB12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1020,42 +1061,39 @@
         <v>10</v>
       </c>
       <c r="D13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>18</v>
-      </c>
-      <c r="F13">
-        <v>22</v>
-      </c>
-      <c r="J13">
-        <f>J8</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>N8</f>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f>R8</f>
-        <v>1</v>
-      </c>
-      <c r="V13">
-        <f>V8</f>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f>SUM(J13:Y13)</f>
-        <v>1</v>
-      </c>
-      <c r="AA13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13">
+        <f>P8</f>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f>T8</f>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f>X8</f>
+        <v>1</v>
+      </c>
+      <c r="AB13">
+        <f>AB8</f>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f>SUM(P13:AE13)</f>
+        <v>1</v>
+      </c>
+      <c r="AG13" t="s">
         <v>23</v>
       </c>
-      <c r="AB13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1066,42 +1104,39 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>18</v>
-      </c>
-      <c r="F14">
-        <v>22</v>
-      </c>
-      <c r="K14">
-        <f>K8</f>
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <f>O8</f>
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <f>S8</f>
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <f>W8</f>
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" ref="Z14:Z16" si="1">SUM(J14:Y14)</f>
-        <v>1</v>
-      </c>
-      <c r="AA14" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <f>Q8</f>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f>U8</f>
+        <v>1</v>
+      </c>
+      <c r="Y14">
+        <f>Y8</f>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f>AC8</f>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" ref="AF14:AF16" si="1">SUM(P14:AE14)</f>
+        <v>1</v>
+      </c>
+      <c r="AG14" t="s">
         <v>23</v>
       </c>
-      <c r="AB14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1112,42 +1147,39 @@
         <v>12</v>
       </c>
       <c r="D15">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>18</v>
-      </c>
-      <c r="F15">
-        <v>22</v>
-      </c>
-      <c r="L15">
-        <f>L8</f>
-        <v>1</v>
-      </c>
-      <c r="P15">
-        <f>P8</f>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f>T8</f>
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <f>X8</f>
+        <v>1</v>
+      </c>
+      <c r="R15">
+        <f>R8</f>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f>V8</f>
         <v>0</v>
       </c>
       <c r="Z15">
+        <f>Z8</f>
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <f>AD8</f>
+        <v>0</v>
+      </c>
+      <c r="AF15">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AG15" t="s">
         <v>23</v>
       </c>
-      <c r="AB15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="AH15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1157,34 +1189,40 @@
       <c r="C16">
         <v>12</v>
       </c>
-      <c r="M16">
-        <f>M8</f>
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <f>Q8</f>
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <f>U8</f>
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <f>Y8</f>
-        <v>1</v>
-      </c>
-      <c r="Z16">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <f>S8</f>
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <f>W8</f>
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <f>AA8</f>
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <f>AE8</f>
+        <v>1</v>
+      </c>
+      <c r="AF16">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AG16" t="s">
         <v>23</v>
       </c>
-      <c r="AB16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="AH16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1195,16 +1233,13 @@
         <v>13</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1215,16 +1250,13 @@
         <v>14</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1235,16 +1267,13 @@
         <v>15</v>
       </c>
       <c r="D19">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1255,16 +1284,13 @@
         <v>16</v>
       </c>
       <c r="D20">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>8</v>
-      </c>
-      <c r="F20">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1274,8 +1300,695 @@
       <c r="C21">
         <v>16</v>
       </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>7</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>8</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>3</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>3</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>12</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>14</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>15</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>16</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>4</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>4</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>4</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>8</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>3</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>9</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54">
+        <v>3</v>
+      </c>
+      <c r="C54">
+        <v>11</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>3</v>
+      </c>
+      <c r="B55">
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <v>12</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>12</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>4</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>4</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>14</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>15</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60">
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>16</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E64E9EA-449A-4F10-BB4A-FDFFC326A6E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4325C-7FCE-4FF2-B41F-D8702BB5239A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="15540" yWindow="4692" windowWidth="7500" windowHeight="6000" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -52,25 +52,17 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Flight</t>
   </si>
@@ -172,6 +164,9 @@
   </si>
   <si>
     <t>Flight4</t>
+  </si>
+  <si>
+    <t>Gate_compatibility</t>
   </si>
 </sst>
 </file>
@@ -225,7 +220,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -241,7 +236,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -539,14 +534,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -567,6 +563,9 @@
       <c r="E1" t="s">
         <v>29</v>
       </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2">
@@ -584,6 +583,9 @@
       <c r="E2">
         <v>1</v>
       </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
       <c r="H2">
         <v>1</v>
       </c>
@@ -610,6 +612,9 @@
       <c r="E3">
         <v>1</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
       <c r="G3" t="s">
         <v>30</v>
       </c>
@@ -631,6 +636,9 @@
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
       </c>
       <c r="G4" t="s">
         <v>31</v>
@@ -664,6 +672,9 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
       <c r="G5" t="s">
         <v>32</v>
       </c>
@@ -686,6 +697,9 @@
       <c r="E6">
         <v>1</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
       <c r="G6" t="s">
         <v>33</v>
       </c>
@@ -755,6 +769,9 @@
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="O7" t="s">
         <v>2</v>
       </c>
@@ -823,6 +840,9 @@
       <c r="E8">
         <v>1</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="O8" t="s">
         <v>22</v>
       </c>
@@ -891,6 +911,9 @@
       <c r="E9">
         <v>1</v>
       </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
       <c r="O9" t="s">
         <v>21</v>
       </c>
@@ -937,6 +960,9 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="T10">
         <f>T8</f>
         <v>0</v>
@@ -980,6 +1006,9 @@
       <c r="E11">
         <v>1</v>
       </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
       <c r="X11">
         <f>X8</f>
         <v>1</v>
@@ -1023,6 +1052,9 @@
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="AB12">
         <f>AB8</f>
         <v>0</v>
@@ -1066,6 +1098,9 @@
       <c r="E13">
         <v>1</v>
       </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="P13">
         <f>P8</f>
         <v>0</v>
@@ -1109,6 +1144,9 @@
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="Q14">
         <f>Q8</f>
         <v>0</v>
@@ -1152,6 +1190,9 @@
       <c r="E15">
         <v>1</v>
       </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="R15">
         <f>R8</f>
         <v>1</v>
@@ -1195,6 +1236,9 @@
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="S16">
         <f>S8</f>
         <v>0</v>
@@ -1222,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1238,8 +1282,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1255,8 +1302,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -1272,8 +1322,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>4</v>
       </c>
@@ -1289,8 +1342,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1306,8 +1362,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1323,8 +1382,12 @@
       <c r="E22">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22">
+        <f>F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1340,8 +1403,12 @@
       <c r="E23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F23">
+        <f t="shared" ref="F23:F26" si="2">F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1357,8 +1424,12 @@
       <c r="E24">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1374,8 +1445,12 @@
       <c r="E25">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1391,8 +1466,12 @@
       <c r="E26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1408,8 +1487,12 @@
       <c r="E27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27">
+        <f>F7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1425,8 +1508,12 @@
       <c r="E28">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28">
+        <f t="shared" ref="F28:F31" si="3">F8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1442,8 +1529,12 @@
       <c r="E29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1459,8 +1550,12 @@
       <c r="E30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1476,8 +1571,12 @@
       <c r="E31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1493,8 +1592,12 @@
       <c r="E32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32">
+        <f>F12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1510,8 +1613,12 @@
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33">
+        <f t="shared" ref="F33:F36" si="4">F13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1527,8 +1634,12 @@
       <c r="E34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1544,8 +1655,12 @@
       <c r="E35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1561,8 +1676,12 @@
       <c r="E36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1578,8 +1697,12 @@
       <c r="E37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37">
+        <f>F17</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>4</v>
       </c>
@@ -1595,8 +1718,12 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38">
+        <f t="shared" ref="F38:F41" si="5">F18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>4</v>
       </c>
@@ -1612,8 +1739,12 @@
       <c r="E39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1629,8 +1760,12 @@
       <c r="E40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1646,8 +1781,12 @@
       <c r="E41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1663,8 +1802,12 @@
       <c r="E42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42">
+        <f>F22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1680,8 +1823,12 @@
       <c r="E43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43">
+        <f t="shared" ref="F43:F46" si="6">F23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1697,8 +1844,12 @@
       <c r="E44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1714,8 +1865,12 @@
       <c r="E45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1731,8 +1886,12 @@
       <c r="E46">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1748,8 +1907,12 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47">
+        <f>F27</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1765,8 +1928,12 @@
       <c r="E48">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48">
+        <f t="shared" ref="F48:F51" si="7">F28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1782,8 +1949,12 @@
       <c r="E49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1799,8 +1970,12 @@
       <c r="E50">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1816,8 +1991,12 @@
       <c r="E51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>3</v>
       </c>
@@ -1833,8 +2012,12 @@
       <c r="E52">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52">
+        <f>F32</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>3</v>
       </c>
@@ -1850,8 +2033,12 @@
       <c r="E53">
         <v>3</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53">
+        <f t="shared" ref="F53:F56" si="8">F33</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3</v>
       </c>
@@ -1867,8 +2054,12 @@
       <c r="E54">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1884,8 +2075,12 @@
       <c r="E55">
         <v>3</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>3</v>
       </c>
@@ -1901,8 +2096,12 @@
       <c r="E56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1918,8 +2117,12 @@
       <c r="E57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57">
+        <f>F37</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1935,8 +2138,12 @@
       <c r="E58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58">
+        <f t="shared" ref="F58:F61" si="9">F38</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1952,8 +2159,12 @@
       <c r="E59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1969,8 +2180,12 @@
       <c r="E60">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1985,6 +2200,10 @@
       </c>
       <c r="E61">
         <v>3</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4325C-7FCE-4FF2-B41F-D8702BB5239A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D365BE2-5C93-40E5-8C6D-2E18AECB493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15540" yWindow="4692" windowWidth="7500" windowHeight="6000" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +613,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>30</v>
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O7" t="s">
         <v>2</v>
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>22</v>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="F23">
         <f t="shared" ref="F23:F26" si="2">F3</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="F27">
         <f>F7</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="F28">
         <f t="shared" ref="F28:F31" si="3">F8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F43">
         <f t="shared" ref="F43:F46" si="6">F23</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,7 +1909,7 @@
       </c>
       <c r="F47">
         <f>F27</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
@@ -1930,7 +1930,7 @@
       </c>
       <c r="F48">
         <f t="shared" ref="F48:F51" si="7">F28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D365BE2-5C93-40E5-8C6D-2E18AECB493C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F068840-B941-49F5-92DF-0AB394BC9EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15540" yWindow="4692" windowWidth="7500" windowHeight="6000" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AH61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F068840-B941-49F5-92DF-0AB394BC9EDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C6894F-177E-4B18-A24F-7E54AFFA87C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="4692" windowWidth="7500" windowHeight="6000" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="15540" yWindow="2892" windowWidth="7500" windowHeight="6000" firstSheet="2" activeTab="2" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Time_interval" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="solver_adj" localSheetId="0" hidden="1">Blad1!$P$8:$AE$8</definedName>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Model!$P$8:$AE$8</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Blad1!$AF$13:$AF$16</definedName>
-    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Blad1!$AF$9:$AF$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Model!$AF$13:$AF$16</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Model!$AF$9:$AF$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
@@ -34,13 +34,13 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Blad1!$R$4</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Model!$R$4</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
-    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Blad1!$AH$13:$AH$16</definedName>
-    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Blad1!$AH$9:$AH$12</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Model!$AH$13:$AH$16</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Model!$AH$9:$AH$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
   <si>
     <t>Flight</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>Gate_compatibility</t>
+  </si>
+  <si>
+    <t>dep_time</t>
+  </si>
+  <si>
+    <t>arr_time</t>
+  </si>
+  <si>
+    <t>Gate_com</t>
   </si>
 </sst>
 </file>
@@ -534,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2547,137 +2556,310 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B72BF19-867D-4463-B580-6C4051EF72D2}">
-  <dimension ref="A1:A25"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <f>C2</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D3" s="1">
+        <f>D2</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C5" si="0">C3</f>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D5" si="1">D3</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C6</f>
+        <v>0.40625</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <f>C7</f>
+        <v>0.40625</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <f>C8</f>
+        <v>0.40625</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C6894F-177E-4B18-A24F-7E54AFFA87C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECDD8EE-95E5-456F-A186-20EB53ABA1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15540" yWindow="2892" windowWidth="7500" windowHeight="6000" firstSheet="2" activeTab="2" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-216" yWindow="2196" windowWidth="23040" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Time_interval" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
+    <sheet name="new_dataset" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Model!$P$8:$AE$8</definedName>
@@ -52,17 +53,25 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>Flight</t>
   </si>
@@ -229,7 +238,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -245,7 +254,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2558,8 +2567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B72BF19-867D-4463-B580-6C4051EF72D2}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2865,4 +2874,139 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A265F2-913F-4995-9AD1-C3D93AF37EF1}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECDD8EE-95E5-456F-A186-20EB53ABA1A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A418CEAC-B8B6-420F-82DB-BF7F4EEE6A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-216" yWindow="2196" windowWidth="23040" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="8388" yWindow="1596" windowWidth="11256" windowHeight="8844" firstSheet="2" activeTab="3" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
   <si>
     <t>Flight</t>
   </si>
@@ -185,6 +185,18 @@
   </si>
   <si>
     <t>Gate_com</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>3,4,5</t>
+  </si>
+  <si>
+    <t>3,4,6</t>
+  </si>
+  <si>
+    <t>1,2,4</t>
   </si>
 </sst>
 </file>
@@ -2568,7 +2580,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2881,17 +2893,20 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -2904,8 +2919,8 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>1</v>
+      <c r="B2" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>0.38541666666666669</v>
@@ -2918,8 +2933,8 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>1</v>
+      <c r="B3" t="s">
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>0.40625</v>
@@ -2932,8 +2947,8 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="1">
         <v>0.45833333333333331</v>
@@ -2946,8 +2961,8 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>1</v>
+      <c r="B5" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="1">
         <v>0.45833333333333331</v>
@@ -2960,8 +2975,8 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>1</v>
+      <c r="B6" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
@@ -3007,6 +3022,7 @@
       <c r="D17" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A418CEAC-B8B6-420F-82DB-BF7F4EEE6A9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF15896-2595-42F2-9A99-247177B5F876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8388" yWindow="1596" windowWidth="11256" windowHeight="8844" firstSheet="2" activeTab="3" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="9180" yWindow="1656" windowWidth="11256" windowHeight="8844" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Time_interval" sheetId="2" r:id="rId2"/>
     <sheet name="Blad3" sheetId="3" r:id="rId3"/>
     <sheet name="new_dataset" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Model!$P$8:$AE$8</definedName>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
   <si>
     <t>Flight</t>
   </si>
@@ -185,18 +186,6 @@
   </si>
   <si>
     <t>Gate_com</t>
-  </si>
-  <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
-    <t>3,4,5</t>
-  </si>
-  <si>
-    <t>3,4,6</t>
-  </si>
-  <si>
-    <t>1,2,4</t>
   </si>
 </sst>
 </file>
@@ -564,8 +553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A43E037-5129-47AC-AB25-5390A36FF942}">
   <dimension ref="A1:AH61"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2890,10 +2879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6A265F2-913F-4995-9AD1-C3D93AF37EF1}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection sqref="A1:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2901,128 +2890,623 @@
     <col min="2" max="2" width="11.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D2" s="1">
+      <c r="F2" s="1">
         <v>0.41666666666666669</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
         <v>0.40625</v>
       </c>
-      <c r="D3" s="1">
+      <c r="F6" s="1">
         <v>0.46875</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="1">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="1">
+      <c r="F10" s="1">
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="1">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="1">
+      <c r="F11" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="1">
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="1">
+      <c r="F18" s="1">
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0.54166666666666663</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.41666666666666669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>5</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EF15896-2595-42F2-9A99-247177B5F876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2C640-E84B-47BF-A0C7-4F5528E4F277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9180" yWindow="1656" windowWidth="11256" windowHeight="8844" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Flight</t>
   </si>
@@ -186,6 +186,18 @@
   </si>
   <si>
     <t>Gate_com</t>
+  </si>
+  <si>
+    <t>Gate 1</t>
+  </si>
+  <si>
+    <t>Gate 2</t>
+  </si>
+  <si>
+    <t>Gate 3</t>
+  </si>
+  <si>
+    <t>Gate 4</t>
   </si>
 </sst>
 </file>
@@ -3318,191 +3330,215 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C2" s="1">
         <v>0.38541666666666669</v>
       </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1">
         <v>0.41666666666666669</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.40625</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.46875</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.40625</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.46875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>4</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="F18" s="1">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.3">
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C2C640-E84B-47BF-A0C7-4F5528E4F277}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C65C3-8FDA-4419-B721-3ED73B075BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="14148" yWindow="2616" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -54,25 +54,17 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Flight</t>
   </si>
@@ -198,6 +190,12 @@
   </si>
   <si>
     <t>Gate 4</t>
+  </si>
+  <si>
+    <t>Gate 5</t>
+  </si>
+  <si>
+    <t>Passengers</t>
   </si>
 </sst>
 </file>
@@ -251,7 +249,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -267,7 +265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3330,20 +3328,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
         <v>36</v>
@@ -3363,8 +3365,11 @@
       <c r="H1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3387,10 +3392,13 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3404,10 +3412,10 @@
         <v>0.46875</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -3415,8 +3423,11 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3439,10 +3450,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3456,7 +3470,7 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -3465,10 +3479,13 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3482,10 +3499,10 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -3493,36 +3510,64 @@
       <c r="H6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336C65C3-8FDA-4419-B721-3ED73B075BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F02FD-30F9-4469-A71B-0B82CDD57C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14148" yWindow="2616" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>Flight</t>
   </si>
@@ -196,6 +196,24 @@
   </si>
   <si>
     <t>Passengers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight 3 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flight 4 </t>
+  </si>
+  <si>
+    <t>Flight 5</t>
+  </si>
+  <si>
+    <t>Flight 6</t>
   </si>
 </sst>
 </file>
@@ -3328,19 +3346,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3368,8 +3387,26 @@
       <c r="I1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" t="s">
+        <v>47</v>
+      </c>
+      <c r="N1" t="s">
+        <v>48</v>
+      </c>
+      <c r="O1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3398,7 +3435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3427,7 +3464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3456,7 +3493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3485,7 +3522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3514,7 +3551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3543,31 +3580,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{257F02FD-30F9-4469-A71B-0B82CDD57C63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C41BC-E902-49CE-BCC9-730B8C45E486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
@@ -54,10 +54,18 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -220,7 +228,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +238,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -261,15 +277,41 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -282,8 +324,32 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:O7" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
+  <tableColumns count="15">
+    <tableColumn id="1" xr3:uid="{35AA84A0-17ED-488D-BD75-42A9A1A9D6A4}" name="Flight"/>
+    <tableColumn id="2" xr3:uid="{C3E02A15-66CC-47E2-90FC-79E43FA4A71D}" name="Passengers"/>
+    <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F2766B2E-49BD-4B5C-94CB-4711EC7C0F1F}" name="dep_time" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{C34B4F9B-F41C-4458-A4D5-106757CBDD90}" name="Gate 1"/>
+    <tableColumn id="6" xr3:uid="{C9EE310D-5943-4A77-9638-90D6332A6440}" name="Gate 2"/>
+    <tableColumn id="7" xr3:uid="{71937E98-F077-4897-91A9-F0A4FAB0A02D}" name="Gate 3"/>
+    <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Gate 4"/>
+    <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Gate 5"/>
+    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Flight 1 "/>
+    <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 2 "/>
+    <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 3 "/>
+    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 4 "/>
+    <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Flight 5"/>
+    <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Flight 6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3348,61 +3414,65 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="3" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3411,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="C2" s="1">
         <v>0.38541666666666669</v>
@@ -3426,13 +3496,31 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>40</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3440,7 +3528,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>0.40625</v>
@@ -3455,13 +3543,31 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3469,7 +3575,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>150</v>
       </c>
       <c r="C4" s="1">
         <v>0.45833333333333331</v>
@@ -3481,16 +3587,34 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -3498,7 +3622,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="C5" s="1">
         <v>0.45833333333333331</v>
@@ -3507,19 +3631,37 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -3527,7 +3669,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>270</v>
       </c>
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
@@ -3545,9 +3687,27 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>0</v>
       </c>
     </row>
@@ -3556,7 +3716,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>320</v>
       </c>
       <c r="C7" s="1">
         <v>0.55555555555555558</v>
@@ -3565,18 +3725,36 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
         <v>0</v>
       </c>
     </row>
@@ -3626,5 +3804,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46C41BC-E902-49CE-BCC9-730B8C45E486}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBACF295-ADD4-4439-80C5-00F4B3D60539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="1860" yWindow="2388" windowWidth="11256" windowHeight="8844" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
   <si>
     <t>Flight</t>
   </si>
@@ -206,22 +206,25 @@
     <t>Passengers</t>
   </si>
   <si>
-    <t xml:space="preserve">Flight 1 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flight 2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flight 3 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Flight 4 </t>
-  </si>
-  <si>
     <t>Flight 5</t>
   </si>
   <si>
     <t>Flight 6</t>
+  </si>
+  <si>
+    <t>Flights</t>
+  </si>
+  <si>
+    <t>Flight 1</t>
+  </si>
+  <si>
+    <t>Flight 2</t>
+  </si>
+  <si>
+    <t>Flight 3</t>
+  </si>
+  <si>
+    <t>Flight 4</t>
   </si>
 </sst>
 </file>
@@ -328,7 +331,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:O7" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{35AA84A0-17ED-488D-BD75-42A9A1A9D6A4}" name="Flight"/>
+    <tableColumn id="1" xr3:uid="{35AA84A0-17ED-488D-BD75-42A9A1A9D6A4}" name="Flights"/>
     <tableColumn id="2" xr3:uid="{C3E02A15-66CC-47E2-90FC-79E43FA4A71D}" name="Passengers"/>
     <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{F2766B2E-49BD-4B5C-94CB-4711EC7C0F1F}" name="dep_time" dataDxfId="1"/>
@@ -337,10 +340,10 @@
     <tableColumn id="7" xr3:uid="{71937E98-F077-4897-91A9-F0A4FAB0A02D}" name="Gate 3"/>
     <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Gate 4"/>
     <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Gate 5"/>
-    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Flight 1 "/>
-    <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 2 "/>
-    <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 3 "/>
-    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 4 "/>
+    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Flight 1"/>
+    <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 2"/>
+    <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 3"/>
+    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 4"/>
     <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Flight 5"/>
     <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Flight 6"/>
   </tableColumns>
@@ -3414,8 +3417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3431,7 +3434,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>43</v>
@@ -3458,22 +3461,22 @@
         <v>42</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3490,25 +3493,25 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="J2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -3517,10 +3520,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3528,7 +3531,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1">
         <v>0.40625</v>
@@ -3537,28 +3540,28 @@
         <v>0.46875</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -3575,28 +3578,28 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1">
         <v>0.45833333333333331</v>
       </c>
       <c r="D4" s="1">
-        <v>0.5</v>
+        <v>0.4861111111111111</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -3604,7 +3607,7 @@
       <c r="K4">
         <v>0</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
@@ -3622,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1">
         <v>0.45833333333333331</v>
@@ -3631,19 +3634,19 @@
         <v>0.51041666666666663</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -3654,11 +3657,11 @@
       <c r="L5">
         <v>0</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -3669,7 +3672,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>270</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1">
         <v>0.48958333333333331</v>
@@ -3678,16 +3681,16 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3704,7 +3707,7 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
@@ -3716,7 +3719,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1">
         <v>0.55555555555555558</v>
@@ -3725,13 +3728,13 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -3754,7 +3757,7 @@
       <c r="N7">
         <v>0</v>
       </c>
-      <c r="O7" s="2">
+      <c r="O7">
         <v>0</v>
       </c>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBACF295-ADD4-4439-80C5-00F4B3D60539}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30877C-771F-4A80-825F-17470461545A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2388" windowWidth="11256" windowHeight="8844" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -231,6 +231,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -280,16 +283,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="25" formatCode="hh:mm"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -308,12 +318,6 @@
         <scheme val="minor"/>
       </font>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="25" formatCode="hh:mm"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -328,13 +332,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:O7" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
   <tableColumns count="15">
     <tableColumn id="1" xr3:uid="{35AA84A0-17ED-488D-BD75-42A9A1A9D6A4}" name="Flights"/>
     <tableColumn id="2" xr3:uid="{C3E02A15-66CC-47E2-90FC-79E43FA4A71D}" name="Passengers"/>
-    <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{F2766B2E-49BD-4B5C-94CB-4711EC7C0F1F}" name="dep_time" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F2766B2E-49BD-4B5C-94CB-4711EC7C0F1F}" name="dep_time" dataDxfId="0"/>
     <tableColumn id="5" xr3:uid="{C34B4F9B-F41C-4458-A4D5-106757CBDD90}" name="Gate 1"/>
     <tableColumn id="6" xr3:uid="{C9EE310D-5943-4A77-9638-90D6332A6440}" name="Gate 2"/>
     <tableColumn id="7" xr3:uid="{71937E98-F077-4897-91A9-F0A4FAB0A02D}" name="Gate 3"/>
@@ -3418,7 +3422,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3486,10 +3490,10 @@
       <c r="B2">
         <v>100</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="E2">
@@ -3533,10 +3537,10 @@
       <c r="B3">
         <v>100</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.40625</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.46875</v>
       </c>
       <c r="E3">
@@ -3580,11 +3584,11 @@
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="1">
-        <v>0.4861111111111111</v>
+      <c r="D4" s="4">
+        <v>0.49652777777777773</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -3627,10 +3631,10 @@
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>0.51041666666666663</v>
       </c>
       <c r="E5">
@@ -3674,10 +3678,10 @@
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="4">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>0.54166666666666663</v>
       </c>
       <c r="E6">
@@ -3721,10 +3725,10 @@
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="4">
         <v>0.58333333333333337</v>
       </c>
       <c r="E7">

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C0B9DF-6FBA-43C1-952F-7D1F3798B7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EECDF3BD-F1EC-4D62-9A61-288E7512E0B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
@@ -94,10 +94,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -134,7 +140,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -512,13 +518,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.21875" bestFit="1" customWidth="1"/>
@@ -591,16 +597,16 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -638,16 +644,16 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -685,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -732,16 +738,16 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -779,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -826,16 +832,16 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -901,6 +907,7 @@
       <c r="F21" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -913,7 +920,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30877C-771F-4A80-825F-17470461545A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7FD7FF-D8A0-47E8-B527-57BC562FC016}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="12636" yWindow="1560" windowWidth="17280" windowHeight="8964" firstSheet="4" activeTab="4" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -54,25 +54,17 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Flight</t>
   </si>
@@ -225,6 +217,15 @@
   </si>
   <si>
     <t>Flight 4</t>
+  </si>
+  <si>
+    <t>Towe 1</t>
+  </si>
+  <si>
+    <t>Towe 0</t>
+  </si>
+  <si>
+    <t>Towe 2</t>
   </si>
 </sst>
 </file>
@@ -232,7 +233,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -288,10 +289,10 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -332,9 +333,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:O7" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:O7" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
-  <tableColumns count="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:R7" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:R7" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
+  <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{35AA84A0-17ED-488D-BD75-42A9A1A9D6A4}" name="Flights"/>
     <tableColumn id="2" xr3:uid="{C3E02A15-66CC-47E2-90FC-79E43FA4A71D}" name="Passengers"/>
     <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="1"/>
@@ -350,13 +351,16 @@
     <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 4"/>
     <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Flight 5"/>
     <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Flight 6"/>
+    <tableColumn id="16" xr3:uid="{15610B8E-7D22-4E04-ADD6-84860F65DE58}" name="Towe 0"/>
+    <tableColumn id="17" xr3:uid="{92A91D40-2751-4D94-A349-017F5F38BA20}" name="Towe 1"/>
+    <tableColumn id="18" xr3:uid="{31BDBC49-B3F6-4B07-8724-75BC1F6347E2}" name="Towe 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3419,10 +3423,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3436,7 +3440,7 @@
     <col min="11" max="13" width="9.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>46</v>
       </c>
@@ -3482,8 +3486,18 @@
       <c r="O1" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3529,8 +3543,17 @@
       <c r="O2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3576,18 +3599,27 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>100</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="1">
         <v>0.49652777777777773</v>
       </c>
       <c r="E4">
@@ -3623,18 +3655,27 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>100</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="1">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="1">
         <v>0.51041666666666663</v>
       </c>
       <c r="E5">
@@ -3670,18 +3711,27 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="1">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="1">
         <v>0.54166666666666663</v>
       </c>
       <c r="E6">
@@ -3717,18 +3767,27 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>100</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="1">
         <v>0.55555555555555558</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="1">
         <v>0.58333333333333337</v>
       </c>
       <c r="E7">
@@ -3764,32 +3823,43 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BD6077-31C9-4D0E-8C8A-A1C853933BB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F5811-68B7-42C0-8057-EB04A24B4B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="14316" yWindow="2220" windowWidth="17280" windowHeight="8952" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="5" r:id="rId1"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2:R4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -605,7 +605,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="C2" s="3">
         <v>0.38541666666666669</v>
@@ -641,13 +641,13 @@
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="R2">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -691,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
@@ -705,7 +705,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="C4" s="3">
         <v>0.42708333333333331</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>10000</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
@@ -829,7 +829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D12D020-127D-4A86-B12C-7FDF7D3B546C}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A51F5811-68B7-42C0-8057-EB04A24B4B14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913F448E-BBC0-45BA-BB43-0C07F8393DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14316" yWindow="2220" windowWidth="17280" windowHeight="8952" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="5760" yWindow="2220" windowWidth="17280" windowHeight="8952" activeTab="1" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="5" r:id="rId1"/>
@@ -43,12 +43,6 @@
     <t>Gate 3</t>
   </si>
   <si>
-    <t>Gate 4</t>
-  </si>
-  <si>
-    <t>Gate 5</t>
-  </si>
-  <si>
     <t>Passengers</t>
   </si>
   <si>
@@ -61,9 +55,6 @@
     <t>Flight 2</t>
   </si>
   <si>
-    <t>Flight 3</t>
-  </si>
-  <si>
     <t>Gates</t>
   </si>
   <si>
@@ -79,9 +70,6 @@
     <t>Kolom5</t>
   </si>
   <si>
-    <t>Gate 6</t>
-  </si>
-  <si>
     <t>Tow 1</t>
   </si>
   <si>
@@ -89,6 +77,18 @@
   </si>
   <si>
     <t>Tow 2</t>
+  </si>
+  <si>
+    <t>Kolom1</t>
+  </si>
+  <si>
+    <t>Kolom2</t>
+  </si>
+  <si>
+    <t>Kolom6</t>
+  </si>
+  <si>
+    <t>Kolom7</t>
   </si>
 </sst>
 </file>
@@ -199,12 +199,12 @@
     <tableColumn id="5" xr3:uid="{C34B4F9B-F41C-4458-A4D5-106757CBDD90}" name="Gate 1"/>
     <tableColumn id="6" xr3:uid="{C9EE310D-5943-4A77-9638-90D6332A6440}" name="Gate 2"/>
     <tableColumn id="7" xr3:uid="{71937E98-F077-4897-91A9-F0A4FAB0A02D}" name="Gate 3"/>
-    <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Gate 4"/>
-    <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Gate 5"/>
-    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Gate 6"/>
+    <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Kolom1"/>
+    <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Kolom2"/>
+    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Kolom6"/>
     <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 1"/>
     <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 2"/>
-    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 3"/>
+    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Kolom7"/>
     <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Kolom3"/>
     <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Kolom4"/>
     <tableColumn id="16" xr3:uid="{4059327D-0E20-4E5E-BBAA-DAC5B3FE573F}" name="Kolom5"/>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,10 +543,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -564,40 +564,40 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -605,31 +605,22 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
-        <v>0.38541666666666669</v>
+        <v>0.375</v>
       </c>
       <c r="D2" s="3">
-        <v>0.75</v>
+        <v>0.45833333333333331</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -637,17 +628,14 @@
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="Q2">
         <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
       </c>
       <c r="R2">
         <v>1</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
@@ -655,31 +643,22 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.40625</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="D3" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -687,68 +666,19 @@
       <c r="L3">
         <v>0</v>
       </c>
-      <c r="M3">
+      <c r="Q3">
         <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
       <c r="R3">
         <v>1</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -827,10 +757,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D12D020-127D-4A86-B12C-7FDF7D3B546C}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -841,10 +771,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -860,7 +790,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -868,31 +798,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\daam\Documents\OpOp_assignment\OperationsOptimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913F448E-BBC0-45BA-BB43-0C07F8393DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A35EE5-C1DF-472D-8FAC-DA4038A894C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2220" windowWidth="17280" windowHeight="8952" activeTab="1" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="5" r:id="rId1"/>
     <sheet name="Gates" sheetId="6" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>dep_time</t>
   </si>
@@ -89,6 +90,60 @@
   </si>
   <si>
     <t>Kolom7</t>
+  </si>
+  <si>
+    <t>1_0</t>
+  </si>
+  <si>
+    <t>2_0</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>1_1 (1)</t>
+  </si>
+  <si>
+    <t>1_1 (2)</t>
+  </si>
+  <si>
+    <t>1_2 (1)</t>
+  </si>
+  <si>
+    <t>1_2 (2)</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>1_2 (3)</t>
+  </si>
+  <si>
+    <t>1_2 (4)</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>2_1 (1)</t>
   </si>
 </sst>
 </file>
@@ -121,18 +176,68 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -141,14 +246,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
@@ -228,7 +350,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -527,7 +649,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D12D020-127D-4A86-B12C-7FDF7D3B546C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -807,4 +929,169 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4042EA4-B16E-4DF6-AE62-45EAC248CF0B}">
+  <dimension ref="A1:L15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="8.88671875" style="6"/>
+    <col min="6" max="6" width="8.88671875" style="5"/>
+    <col min="7" max="7" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="8.88671875" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="14"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42A35EE5-C1DF-472D-8FAC-DA4038A894C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FCE78-30C5-4780-8B26-A91C568F8E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="2640" yWindow="852" windowWidth="10680" windowHeight="9912" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="5" r:id="rId1"/>
@@ -89,9 +89,6 @@
     <t>Kolom6</t>
   </si>
   <si>
-    <t>Kolom7</t>
-  </si>
-  <si>
     <t>1_0</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>2_1 (1)</t>
+  </si>
+  <si>
+    <t>Flight 3</t>
   </si>
 </sst>
 </file>
@@ -326,7 +326,7 @@
     <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Kolom6"/>
     <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 1"/>
     <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 2"/>
-    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Kolom7"/>
+    <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 3"/>
     <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Kolom3"/>
     <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Kolom4"/>
     <tableColumn id="16" xr3:uid="{4059327D-0E20-4E5E-BBAA-DAC5B3FE573F}" name="Kolom5"/>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>11</v>
@@ -733,21 +733,24 @@
         <v>0.375</v>
       </c>
       <c r="D2" s="3">
-        <v>0.45833333333333331</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -765,27 +768,30 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
-        <v>0.39583333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D3" s="3">
-        <v>0.4375</v>
+        <v>0.625</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
         <v>0</v>
       </c>
       <c r="Q3">
@@ -799,8 +805,45 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>30</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
@@ -935,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4042EA4-B16E-4DF6-AE62-45EAC248CF0B}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -950,27 +993,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>29</v>
-      </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -983,7 +1026,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="12"/>
@@ -996,7 +1039,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -1009,7 +1052,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="12"/>
@@ -1022,7 +1065,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="12"/>
@@ -1033,15 +1076,15 @@
       <c r="H6" s="16"/>
       <c r="I6" s="17"/>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
@@ -1051,10 +1094,10 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
@@ -1064,7 +1107,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="18"/>
       <c r="D10" s="19"/>
@@ -1074,17 +1117,17 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8FCE78-30C5-4780-8B26-A91C568F8E8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44AA97F-2CFF-4EC3-8F37-0D968FFFA5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="852" windowWidth="10680" windowHeight="9912" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="732" yWindow="1608" windowWidth="10680" windowHeight="9912" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="5" r:id="rId1"/>
@@ -62,9 +62,6 @@
     <t>gate_cost</t>
   </si>
   <si>
-    <t>Kolom3</t>
-  </si>
-  <si>
     <t>Kolom4</t>
   </si>
   <si>
@@ -80,9 +77,6 @@
     <t>Tow 2</t>
   </si>
   <si>
-    <t>Kolom1</t>
-  </si>
-  <si>
     <t>Kolom2</t>
   </si>
   <si>
@@ -144,6 +138,12 @@
   </si>
   <si>
     <t>Flight 3</t>
+  </si>
+  <si>
+    <t>Flight 4</t>
+  </si>
+  <si>
+    <t>Gate 4</t>
   </si>
 </sst>
 </file>
@@ -176,7 +176,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,18 +192,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,12 +250,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,13 +303,13 @@
     <tableColumn id="5" xr3:uid="{C34B4F9B-F41C-4458-A4D5-106757CBDD90}" name="Gate 1"/>
     <tableColumn id="6" xr3:uid="{C9EE310D-5943-4A77-9638-90D6332A6440}" name="Gate 2"/>
     <tableColumn id="7" xr3:uid="{71937E98-F077-4897-91A9-F0A4FAB0A02D}" name="Gate 3"/>
-    <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Kolom1"/>
+    <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Gate 4"/>
     <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Kolom2"/>
     <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Kolom6"/>
     <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 1"/>
     <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 2"/>
     <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 3"/>
-    <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Kolom3"/>
+    <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Flight 4"/>
     <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Kolom4"/>
     <tableColumn id="16" xr3:uid="{4059327D-0E20-4E5E-BBAA-DAC5B3FE573F}" name="Kolom5"/>
     <tableColumn id="17" xr3:uid="{6CAD6B4D-0CD0-4657-8C91-E6516FE65A80}" name="Tow 0"/>
@@ -649,7 +631,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,13 +668,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -701,25 +683,25 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
@@ -744,6 +726,9 @@
       <c r="G2">
         <v>30</v>
       </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
       <c r="K2">
         <v>0</v>
       </c>
@@ -751,6 +736,9 @@
         <v>0</v>
       </c>
       <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
         <v>0</v>
       </c>
       <c r="Q2">
@@ -785,6 +773,9 @@
       <c r="G3">
         <v>30</v>
       </c>
+      <c r="H3">
+        <v>30</v>
+      </c>
       <c r="K3">
         <v>0</v>
       </c>
@@ -792,6 +783,9 @@
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0</v>
       </c>
       <c r="Q3">
@@ -826,6 +820,9 @@
       <c r="G4">
         <v>30</v>
       </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
       <c r="K4">
         <v>0</v>
       </c>
@@ -833,6 +830,9 @@
         <v>0</v>
       </c>
       <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <v>0</v>
       </c>
       <c r="Q4">
@@ -846,8 +846,51 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>30</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C6" s="3"/>
@@ -922,10 +965,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D12D020-127D-4A86-B12C-7FDF7D3B546C}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -955,7 +998,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -963,7 +1006,15 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +1030,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -993,27 +1044,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="F1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
         <v>25</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -1026,112 +1077,64 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14"/>
+        <v>27</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="7"/>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="18"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7"/>
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,26 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E44AA97F-2CFF-4EC3-8F37-0D968FFFA5DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B4BE2-06E8-4C49-9B48-132D5731D133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="732" yWindow="1608" windowWidth="10680" windowHeight="9912" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
   <sheets>
     <sheet name="Flights" sheetId="5" r:id="rId1"/>
     <sheet name="Gates" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>dep_time</t>
   </si>
@@ -62,12 +70,6 @@
     <t>gate_cost</t>
   </si>
   <si>
-    <t>Kolom4</t>
-  </si>
-  <si>
-    <t>Kolom5</t>
-  </si>
-  <si>
     <t>Tow 1</t>
   </si>
   <si>
@@ -77,12 +79,6 @@
     <t>Tow 2</t>
   </si>
   <si>
-    <t>Kolom2</t>
-  </si>
-  <si>
-    <t>Kolom6</t>
-  </si>
-  <si>
     <t>1_0</t>
   </si>
   <si>
@@ -144,6 +140,30 @@
   </si>
   <si>
     <t>Gate 4</t>
+  </si>
+  <si>
+    <t>Gate 5</t>
+  </si>
+  <si>
+    <t>Gate 6</t>
+  </si>
+  <si>
+    <t>Flight 5</t>
+  </si>
+  <si>
+    <t>Flight 6</t>
+  </si>
+  <si>
+    <t>Flight 7</t>
+  </si>
+  <si>
+    <t>Flight 8</t>
+  </si>
+  <si>
+    <t>Flight 9</t>
+  </si>
+  <si>
+    <t>Flight 10</t>
   </si>
 </sst>
 </file>
@@ -176,7 +196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,8 +221,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -230,11 +256,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -250,11 +306,116 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="1"/>
+        </left>
+        <right style="thin">
+          <color theme="1"/>
+        </right>
+        <top style="thin">
+          <color theme="1"/>
+        </top>
+        <bottom style="thin">
+          <color theme="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="25" formatCode="hh:mm"/>
     </dxf>
@@ -293,28 +454,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:S11" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:S11" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41C64F55-0EB1-4F1E-977C-15A030BFD2F4}" name="Table1" displayName="Table1" ref="A1:W11" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:W11" xr:uid="{6F407DF8-F1E5-4646-87A7-4A6D757BAA65}"/>
+  <tableColumns count="23">
     <tableColumn id="1" xr3:uid="{35AA84A0-17ED-488D-BD75-42A9A1A9D6A4}" name="Flights"/>
     <tableColumn id="2" xr3:uid="{C3E02A15-66CC-47E2-90FC-79E43FA4A71D}" name="Passengers"/>
-    <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{F2766B2E-49BD-4B5C-94CB-4711EC7C0F1F}" name="dep_time" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{CDCEC883-9402-444D-B0A6-D9AD2FE8CD50}" name="arr_time" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{F2766B2E-49BD-4B5C-94CB-4711EC7C0F1F}" name="dep_time" dataDxfId="3"/>
     <tableColumn id="5" xr3:uid="{C34B4F9B-F41C-4458-A4D5-106757CBDD90}" name="Gate 1"/>
     <tableColumn id="6" xr3:uid="{C9EE310D-5943-4A77-9638-90D6332A6440}" name="Gate 2"/>
     <tableColumn id="7" xr3:uid="{71937E98-F077-4897-91A9-F0A4FAB0A02D}" name="Gate 3"/>
     <tableColumn id="8" xr3:uid="{DC750559-06BF-4CB7-BAD4-D8F99CD72519}" name="Gate 4"/>
-    <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Kolom2"/>
-    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Kolom6"/>
+    <tableColumn id="9" xr3:uid="{1E8E33B4-3F2F-4186-8466-26724C5554A7}" name="Gate 5"/>
+    <tableColumn id="10" xr3:uid="{78FA99B6-3F71-4049-98AC-A52435E42B11}" name="Gate 6"/>
     <tableColumn id="11" xr3:uid="{857450EF-EFF8-4421-B82F-B2CCEC68C563}" name="Flight 1"/>
     <tableColumn id="12" xr3:uid="{FF65540F-6929-48A1-8D94-D4B616D2FEDF}" name="Flight 2"/>
     <tableColumn id="13" xr3:uid="{8B2BCFF8-38CE-489F-B092-D0ED1B3E8DA7}" name="Flight 3"/>
     <tableColumn id="14" xr3:uid="{0A0F83E7-9ACB-483E-8CE7-CD810DDFE7AC}" name="Flight 4"/>
-    <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Kolom4"/>
-    <tableColumn id="16" xr3:uid="{4059327D-0E20-4E5E-BBAA-DAC5B3FE573F}" name="Kolom5"/>
-    <tableColumn id="17" xr3:uid="{6CAD6B4D-0CD0-4657-8C91-E6516FE65A80}" name="Tow 0"/>
-    <tableColumn id="18" xr3:uid="{96970611-7B4C-41B1-9B4F-265E63E66372}" name="Tow 1"/>
-    <tableColumn id="19" xr3:uid="{0A2D2FCB-EE8B-4BA6-B4CD-1B75EEC1BA60}" name="Tow 2"/>
+    <tableColumn id="15" xr3:uid="{87ED476B-0C21-4266-8750-A157D4BAA274}" name="Flight 5"/>
+    <tableColumn id="16" xr3:uid="{4059327D-0E20-4E5E-BBAA-DAC5B3FE573F}" name="Flight 6"/>
+    <tableColumn id="17" xr3:uid="{6CAD6B4D-0CD0-4657-8C91-E6516FE65A80}" name="Flight 7"/>
+    <tableColumn id="18" xr3:uid="{96970611-7B4C-41B1-9B4F-265E63E66372}" name="Flight 8"/>
+    <tableColumn id="19" xr3:uid="{0A2D2FCB-EE8B-4BA6-B4CD-1B75EEC1BA60}" name="Flight 9"/>
+    <tableColumn id="20" xr3:uid="{2D8C6F3B-29A2-4152-9085-3AD148934627}" name="Flight 10"/>
+    <tableColumn id="21" xr3:uid="{B6A705A0-81EF-4501-804B-8A66E22C115D}" name="Tow 0" dataDxfId="2"/>
+    <tableColumn id="22" xr3:uid="{9D0D2964-53EB-4B03-9D78-0B84ED4B3201}" name="Tow 1" dataDxfId="1"/>
+    <tableColumn id="23" xr3:uid="{A02AAD62-4B39-4AE6-BB72-3BBA2FB4916B}" name="Tow 2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED46809A-AE24-43B9-8F63-9143E85F558D}">
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,7 +810,7 @@
     <col min="19" max="19" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -668,13 +833,13 @@
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>7</v>
@@ -683,28 +848,40 @@
         <v>8</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="V1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -715,19 +892,25 @@
         <v>0.375</v>
       </c>
       <c r="D2" s="3">
-        <v>0.66666666666666663</v>
+        <v>0.39583333333333331</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -741,40 +924,64 @@
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="15">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
+        <v>1</v>
+      </c>
+      <c r="W2" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
-        <v>0.41666666666666669</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="D3" s="3">
-        <v>0.625</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="H3">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -788,17 +995,35 @@
       <c r="N3">
         <v>0</v>
       </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="16">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16">
+        <v>1</v>
+      </c>
+      <c r="W3" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -806,135 +1031,579 @@
         <v>1</v>
       </c>
       <c r="C4" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="15">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
+        <v>1</v>
+      </c>
+      <c r="W4" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5" s="16">
+        <v>0</v>
+      </c>
+      <c r="V5" s="16">
+        <v>1</v>
+      </c>
+      <c r="W5" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>1</v>
+      </c>
+      <c r="W6" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7" s="16">
+        <v>0</v>
+      </c>
+      <c r="V7" s="16">
+        <v>1</v>
+      </c>
+      <c r="W7" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8" s="16">
+        <v>0</v>
+      </c>
+      <c r="V8" s="16">
+        <v>1</v>
+      </c>
+      <c r="W8" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>30</v>
-      </c>
-      <c r="G4">
-        <v>30</v>
-      </c>
-      <c r="H4">
-        <v>30</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="D9" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9" s="16">
+        <v>0</v>
+      </c>
+      <c r="V9" s="16">
+        <v>1</v>
+      </c>
+      <c r="W9" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>3</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="16">
+        <v>0</v>
+      </c>
+      <c r="V10" s="16">
+        <v>1</v>
+      </c>
+      <c r="W10" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D11" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>30</v>
-      </c>
-      <c r="G5">
-        <v>30</v>
-      </c>
-      <c r="H5">
-        <v>30</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11" s="16">
+        <v>0</v>
+      </c>
+      <c r="V11" s="16">
+        <v>1</v>
+      </c>
+      <c r="W11" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
@@ -965,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D12D020-127D-4A86-B12C-7FDF7D3B546C}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,6 +1683,22 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -1044,27 +1729,27 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="10"/>
@@ -1077,12 +1762,12 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
@@ -1092,48 +1777,48 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7"/>
       <c r="L6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchel\Documents\TU\AE4441-16 Operations optimisation\Assignment\OperationsOptimization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC3B4BE2-06E8-4C49-9B48-132D5731D133}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6962747F-F51C-46C3-B15C-41DCC6CE5AB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57C2F7B5-A351-4D82-8024-C593F424B15D}"/>
   </bookViews>
@@ -796,7 +796,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="3">
-        <v>0.40972222222222227</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D6" s="3">
         <v>0.43055555555555558</v>
@@ -1244,7 +1244,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="3">
-        <v>0.43055555555555558</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="D7" s="3">
         <v>0.4513888888888889</v>
@@ -1637,7 +1637,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1712,10 +1712,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4042EA4-B16E-4DF6-AE62-45EAC248CF0B}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="Q3" sqref="Q3:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,7 +1727,7 @@
     <col min="9" max="9" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
         <v>18</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1760,12 +1760,21 @@
       <c r="H2" s="11"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0.375</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.39583333333333331</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -1774,13 +1783,31 @@
       <c r="E4" s="13"/>
       <c r="F4" s="14"/>
       <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -1790,35 +1817,153 @@
       <c r="L6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.40277777777777773</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.4236111111111111</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M9">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>80</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="R11" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
+      </c>
+      <c r="M15">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="21" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="23" spans="13:13" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
